--- a/data files/Purchase Order/SISLA.xlsx
+++ b/data files/Purchase Order/SISLA.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F584C64-2EF1-45AD-B850-E7308776BCAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="4956" yWindow="3360" windowWidth="17304" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
   <si>
     <t>pcs</t>
   </si>
@@ -129,13 +130,28 @@
   </si>
   <si>
     <t>500ml</t>
+  </si>
+  <si>
+    <t>SI.</t>
+  </si>
+  <si>
+    <t>Item Name</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Weight</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,13 +251,24 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -280,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -291,7 +318,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -318,9 +345,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -330,6 +356,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,14 +375,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -385,7 +423,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -457,7 +495,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -630,43 +668,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.5">
       <c r="A1" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
         <v>34</v>
       </c>
       <c r="B3" s="1"/>
@@ -674,14 +710,14 @@
       <c r="D3" s="2"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
@@ -690,259 +726,265 @@
       <c r="D5" s="5"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+    </row>
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="16"/>
       <c r="B7" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="19"/>
+        <v>1</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="18"/>
       <c r="E7" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="16"/>
       <c r="B8" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>5</v>
+      <c r="C8" s="23" t="s">
+        <v>4</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="16"/>
       <c r="B9" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>5</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="16"/>
       <c r="B10" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>7</v>
+      <c r="C10" s="23" t="s">
+        <v>12</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
       <c r="B11" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>30</v>
+        <v>6</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>7</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="16"/>
       <c r="B12" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>9</v>
+      <c r="C12" s="23" t="s">
+        <v>30</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A13" s="16"/>
       <c r="B13" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="20"/>
+      <c r="C13" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="19"/>
       <c r="E13" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
       <c r="B14" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="19"/>
+      <c r="C14" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="20"/>
       <c r="E14" s="17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>17</v>
       </c>
       <c r="D15" s="19"/>
-      <c r="E15" s="16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E15" s="17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A16" s="16"/>
       <c r="B16" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>14</v>
       </c>
       <c r="D16" s="19"/>
-      <c r="E16" s="21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E16" s="16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A17" s="16"/>
       <c r="B17" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="24" t="s">
-        <v>32</v>
+      <c r="C17" s="23" t="s">
+        <v>16</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="21" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A18" s="16"/>
       <c r="B18" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>29</v>
+        <v>15</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>32</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="21" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A19" s="16"/>
       <c r="B19" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="21" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A20" s="16"/>
       <c r="B20" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="24" t="s">
-        <v>19</v>
+      <c r="C20" s="23" t="s">
+        <v>20</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="21" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A21" s="16"/>
       <c r="B21" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>19</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="21" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="16"/>
       <c r="B22" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>22</v>
+        <v>35</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>7</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="21" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A23" s="16"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="24" t="s">
-        <v>23</v>
+      <c r="C23" s="23" t="s">
+        <v>22</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="21" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="16"/>
       <c r="B24" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>9</v>
+        <v>21</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>23</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="21" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A25" s="16"/>
       <c r="B25" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="24" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="19"/>
@@ -950,70 +992,83 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26" s="16"/>
       <c r="B26" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="25" t="s">
-        <v>4</v>
+      <c r="C26" s="24" t="s">
+        <v>9</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="21" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A27" s="16"/>
       <c r="B27" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>2</v>
+        <v>31</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>4</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="21" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
+    <row r="28" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A28" s="16"/>
       <c r="B28" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>2</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="21" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="34" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E34" s="6"/>
-    </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E35" s="10"/>
-    </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D36" s="11"/>
+    <row r="29" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="9"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="35" spans="4:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E36" s="10"/>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D37" s="11"/>
       <c r="E37" s="10"/>
     </row>
-    <row r="38" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D38" s="11"/>
+      <c r="E38" s="10"/>
+    </row>
+    <row r="39" spans="4:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.11" top="0.19" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1022,12 +1077,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data files/Purchase Order/SISLA.xlsx
+++ b/data files/Purchase Order/SISLA.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F584C64-2EF1-45AD-B850-E7308776BCAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AEAF71-745C-4A7A-8909-63E418AFD148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4956" yWindow="3360" windowWidth="17304" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
   <si>
     <t>pcs</t>
   </si>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>Glycerol 85%</t>
-  </si>
-  <si>
-    <t>18/04/24</t>
   </si>
   <si>
     <t>Liq. Parrafin-Heavy</t>
@@ -151,7 +148,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,14 +178,6 @@
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
       <u/>
       <sz val="10"/>
       <name val="Arial"/>
@@ -307,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -320,49 +309,46 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -671,53 +657,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:7" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.4">
+      <c r="A1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="G1" s="22" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="G1" s="21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
-        <v>34</v>
-      </c>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
@@ -726,347 +710,373 @@
       <c r="D5" s="5"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="C6" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="27" t="s">
+      <c r="E6" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-    </row>
-    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17" t="s">
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17" t="s">
+      <c r="D8" s="18"/>
+      <c r="E8" s="16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17" t="s">
+      <c r="D9" s="18">
+        <v>8</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17" t="s">
+      <c r="D10" s="18">
+        <v>180</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17" t="s">
+      <c r="D11" s="18">
+        <v>135</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17" t="s">
+      <c r="D12" s="18"/>
+      <c r="E12" s="16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17" t="s">
+      <c r="D13" s="18">
+        <v>180</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="17" t="s">
+      <c r="D14" s="19">
+        <v>80</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17" t="s">
+    <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17" t="s">
+      <c r="D15" s="18"/>
+      <c r="E15" s="16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17" t="s">
+      <c r="D16" s="18"/>
+      <c r="E16" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17" t="s">
+      <c r="D17" s="18"/>
+      <c r="E17" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17" t="s">
+      <c r="D18" s="18">
+        <v>60</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17" t="s">
+      <c r="D19" s="18">
+        <v>40</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17" t="s">
+      <c r="D20" s="18">
+        <v>120</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17" t="s">
+      <c r="D21" s="18"/>
+      <c r="E21" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="18">
+        <v>120</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="18"/>
+      <c r="E25" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="15"/>
+      <c r="B26" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="18"/>
+      <c r="E26" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="15"/>
+      <c r="B27" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="18">
+        <v>20</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="15"/>
+      <c r="B28" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="18"/>
+      <c r="E28" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
-      <c r="B27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="17" t="s">
+      <c r="C29" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
+      <c r="D29" s="18">
+        <v>30</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="20"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
     </row>
-    <row r="35" spans="4:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E36" s="10"/>
-    </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D37" s="11"/>
-      <c r="E37" s="10"/>
-    </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D38" s="11"/>
-      <c r="E38" s="10"/>
-    </row>
-    <row r="39" spans="4:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E36" s="9"/>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D37" s="10"/>
+      <c r="E37" s="9"/>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D38" s="10"/>
+      <c r="E38" s="9"/>
+    </row>
+    <row r="39" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
     </row>
@@ -1082,7 +1092,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
